--- a/resources/testdata/AgentTestCases.xlsx
+++ b/resources/testdata/AgentTestCases.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="addAgent" sheetId="2" r:id="rId2"/>
+    <sheet name="addAgentUserGivenUPN" sheetId="2" r:id="rId2"/>
+    <sheet name="addAgentAutogenUPN" sheetId="3" r:id="rId3"/>
+    <sheet name="checkUPN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -26,12 +28,6 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>addAgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding an agent </t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -114,6 +110,45 @@
   </si>
   <si>
     <t>automationqa.test.local</t>
+  </si>
+  <si>
+    <t>addAgentUserGivenUPN</t>
+  </si>
+  <si>
+    <t>Adding an agent with user Given UPN</t>
+  </si>
+  <si>
+    <t>addAgentAutogenUPN</t>
+  </si>
+  <si>
+    <t>Adding an agent with Autogenerated  UPN</t>
+  </si>
+  <si>
+    <t>Automation's &amp; Agent 1</t>
+  </si>
+  <si>
+    <t>VAT -4564</t>
+  </si>
+  <si>
+    <t>Box-556 of X's street</t>
+  </si>
+  <si>
+    <t>Beker &amp; cramer's street1</t>
+  </si>
+  <si>
+    <t>Créteil1</t>
+  </si>
+  <si>
+    <t>NN-56 787234562</t>
+  </si>
+  <si>
+    <t>Verify fields of agent creation page</t>
+  </si>
+  <si>
+    <t>checkDuplicateUPN</t>
+  </si>
+  <si>
+    <t>abc.com</t>
   </si>
 </sst>
 </file>
@@ -462,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,13 +522,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -505,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,31 +584,150 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -565,52 +741,88 @@
       <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testdata/AgentTestCases.xlsx
+++ b/resources/testdata/AgentTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -145,10 +145,10 @@
     <t>Verify fields of agent creation page</t>
   </si>
   <si>
-    <t>checkDuplicateUPN</t>
-  </si>
-  <si>
     <t>abc.com</t>
+  </si>
+  <si>
+    <t>checkUPN</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testdata/AgentTestCases.xlsx
+++ b/resources/testdata/AgentTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/testdata/AgentTestCases.xlsx
+++ b/resources/testdata/AgentTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -145,10 +145,10 @@
     <t>Verify fields of agent creation page</t>
   </si>
   <si>
-    <t>abc.com</t>
-  </si>
-  <si>
     <t>checkUPN</t>
+  </si>
+  <si>
+    <t>autotest1.ensim</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -679,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
